--- a/doc/数据表设计.xlsx
+++ b/doc/数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="渠道" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="客运站" sheetId="2" r:id="rId3"/>
     <sheet name="销售流水" sheetId="3" r:id="rId4"/>
     <sheet name="保险信息" sheetId="5" r:id="rId5"/>
+    <sheet name="统计模块访问日志" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>渠道（Channel）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +323,42 @@
   </si>
   <si>
     <t>flowdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计模块访问日志(Weixin_log)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1173,4 +1210,64 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>